--- a/March'21/22.03.2021/Market Due.xlsx
+++ b/March'21/22.03.2021/Market Due.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="3" activeTab="17"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="19815" windowHeight="7665" firstSheet="3" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="01" sheetId="1" r:id="rId1"/>
@@ -612,7 +612,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="95">
   <si>
     <t>Hello Daffodils</t>
   </si>
@@ -887,13 +887,16 @@
     <t>G.A Achieve</t>
   </si>
   <si>
-    <t>Till-10.00 PM</t>
-  </si>
-  <si>
     <t>22.03.2021</t>
   </si>
   <si>
     <t>Mezbah(ZSO)</t>
+  </si>
+  <si>
+    <t>Till-4.30 PM</t>
+  </si>
+  <si>
+    <t>Target</t>
   </si>
 </sst>
 </file>
@@ -985,7 +988,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1049,12 +1052,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0066"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,7 +1269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1389,12 +1386,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1806,28 +1797,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
+      <c r="A2" s="48"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="50"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="55"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="53"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2129,11 +2120,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="59">
+      <c r="B29" s="57">
         <f>SUM(B6:B28)</f>
         <v>59281</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="58"/>
     </row>
   </sheetData>
   <sortState ref="A6:C28">
@@ -2166,28 +2157,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2531,11 +2522,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>123427</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2566,28 +2557,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -2938,11 +2929,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>120005</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2973,28 +2964,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3344,11 +3335,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>144667</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3379,28 +3370,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -3762,11 +3753,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3797,28 +3788,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4180,11 +4171,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>162606</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4217,28 +4208,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -4600,11 +4591,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>200038</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4645,28 +4636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5028,11 +5019,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>215937</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5073,28 +5064,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5456,11 +5447,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>181155</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5486,7 +5477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
@@ -5501,28 +5492,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -5554,7 +5545,7 @@
         <v>16573</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5587,7 +5578,7 @@
         <v>4975</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5696,7 +5687,7 @@
         <v>18943</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
@@ -5718,7 +5709,7 @@
         <v>9400</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
@@ -5784,7 +5775,7 @@
         <v>1687</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="21"/>
@@ -5806,7 +5797,7 @@
         <v>40200</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="21"/>
@@ -5833,13 +5824,13 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B24" s="6">
         <v>382</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5850,7 +5841,7 @@
         <v>4600</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -5890,11 +5881,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>185894</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
       <c r="F29" s="44"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -5918,231 +5909,320 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="11" max="11" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+    <row r="1" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="42"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
       <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F1" s="42"/>
+    </row>
+    <row r="2" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="28" t="s">
         <v>38</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="F2" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
         <v>39</v>
       </c>
       <c r="B3" s="28"/>
       <c r="C3" s="28">
-        <v>1</v>
-      </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="41"/>
-    </row>
-    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="28">
+        <v>2</v>
+      </c>
+      <c r="E3" s="28">
+        <f>C3-D3</f>
+        <v>8</v>
+      </c>
+      <c r="F3" s="41"/>
+    </row>
+    <row r="4" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28">
-        <v>4</v>
-      </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="41"/>
-    </row>
-    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30"/>
+      <c r="C4" s="30">
+        <v>5</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <f t="shared" ref="E4:E22" si="0">C4-D4</f>
+        <v>5</v>
+      </c>
+      <c r="F4" s="41"/>
+    </row>
+    <row r="5" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="28"/>
       <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2</v>
+      </c>
+      <c r="E5" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F5" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>42</v>
       </c>
       <c r="B6" s="28"/>
       <c r="C6" s="28">
-        <v>1</v>
-      </c>
-      <c r="D6" s="28"/>
-      <c r="E6" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="28">
+        <v>9</v>
+      </c>
+      <c r="E6" s="28">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="F6" s="41" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
         <v>43</v>
       </c>
       <c r="B7" s="28"/>
       <c r="C7" s="28">
-        <v>6</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="41"/>
-      <c r="G7" s="34"/>
-    </row>
-    <row r="8" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="D7" s="28">
+        <v>1</v>
+      </c>
+      <c r="E7" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>44</v>
       </c>
       <c r="B8" s="28"/>
       <c r="C8" s="28">
-        <v>17</v>
-      </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="37"/>
-      <c r="G8" s="34"/>
-      <c r="J8" s="43"/>
-    </row>
-    <row r="9" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D8" s="28">
+        <v>13</v>
+      </c>
+      <c r="E8" s="28">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="H8" s="34"/>
+      <c r="K8" s="43"/>
+    </row>
+    <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
         <v>45</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28">
-        <v>9</v>
-      </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="37"/>
-    </row>
-    <row r="10" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="D9" s="28">
+        <v>3</v>
+      </c>
+      <c r="E9" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="37"/>
+    </row>
+    <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="28"/>
       <c r="C10" s="28">
-        <v>3</v>
-      </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="37"/>
-    </row>
-    <row r="11" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="28">
+        <v>2</v>
+      </c>
+      <c r="E10" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F10" s="37"/>
+    </row>
+    <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28">
-        <v>3</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="37"/>
-    </row>
-    <row r="12" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="30"/>
+      <c r="C11" s="30">
+        <v>10</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F11" s="37"/>
+    </row>
+    <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>48</v>
       </c>
       <c r="B12" s="28"/>
       <c r="C12" s="28">
-        <v>24</v>
-      </c>
-      <c r="D12" s="28"/>
-      <c r="E12" s="37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="28">
+        <v>2</v>
+      </c>
+      <c r="E12" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F12" s="37" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="C13" s="36">
-        <v>3</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="37" t="s">
+      <c r="C13" s="28">
+        <v>10</v>
+      </c>
+      <c r="D13" s="36">
+        <v>18</v>
+      </c>
+      <c r="E13" s="28">
+        <f t="shared" si="0"/>
+        <v>-8</v>
+      </c>
+      <c r="F13" s="37" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>50</v>
       </c>
       <c r="B14" s="28"/>
       <c r="C14" s="28">
+        <v>7</v>
+      </c>
+      <c r="D14" s="28">
         <v>1</v>
       </c>
-      <c r="D14" s="28"/>
-      <c r="E14" s="37"/>
-    </row>
-    <row r="15" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="E14" s="28">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F14" s="37"/>
+    </row>
+    <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28">
+      <c r="B15" s="30"/>
+      <c r="C15" s="30">
+        <v>10</v>
+      </c>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="37"/>
+    </row>
+    <row r="16" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30">
         <v>5</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="37"/>
-    </row>
-    <row r="16" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28">
-        <v>3</v>
-      </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="41" t="s">
+      <c r="D16" s="30"/>
+      <c r="E16" s="30">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="F16" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28">
+        <v>5</v>
+      </c>
+      <c r="D17" s="28">
+        <v>2</v>
+      </c>
+      <c r="E17" s="28">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="41" t="s">
+      <c r="F17" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="28" t="s">
         <v>54</v>
       </c>
@@ -6150,69 +6230,100 @@
       <c r="C18" s="28">
         <v>10</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="37"/>
-    </row>
-    <row r="19" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="28">
+        <v>2</v>
+      </c>
+      <c r="E18" s="28">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="F18" s="37"/>
+    </row>
+    <row r="19" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="28">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D19" s="28"/>
-      <c r="E19" s="41"/>
-    </row>
-    <row r="20" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E19" s="28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="F19" s="41"/>
+    </row>
+    <row r="20" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
         <v>56</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="28">
-        <v>2</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="28">
+        <v>1</v>
+      </c>
+      <c r="E20" s="28">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F20" s="41" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>57</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="28">
-        <v>24</v>
-      </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="37"/>
-    </row>
-    <row r="22" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="D21" s="28">
+        <v>6</v>
+      </c>
+      <c r="E21" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F21" s="37"/>
+    </row>
+    <row r="22" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>58</v>
       </c>
       <c r="B22" s="33"/>
-      <c r="C22" s="28">
-        <v>22</v>
-      </c>
-      <c r="D22" s="45"/>
-      <c r="E22" s="28" t="s">
+      <c r="C22" s="33">
+        <v>5</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1</v>
+      </c>
+      <c r="E22" s="28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F22" s="28" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:6" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="37" t="s">
+      <c r="B23" s="30"/>
+      <c r="C23" s="30">
+        <v>10</v>
+      </c>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>24</v>
       </c>
@@ -6222,17 +6333,21 @@
       </c>
       <c r="C24" s="39">
         <f>SUM(C3:C23)</f>
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="D24" s="39">
         <f>SUM(D3:D23)</f>
-        <v>0</v>
-      </c>
-      <c r="E24" s="40"/>
+        <v>65</v>
+      </c>
+      <c r="E24" s="39">
+        <f>SUM(E3:E23)</f>
+        <v>99</v>
+      </c>
+      <c r="F24" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6256,28 +6371,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -6603,11 +6718,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>124433</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6638,10 +6753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="76"/>
+      <c r="B1" s="74"/>
       <c r="C1" s="35"/>
       <c r="D1" s="35"/>
       <c r="E1" s="27"/>
@@ -6985,7 +7100,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6997,12 +7112,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="74" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
       <c r="E1" s="27"/>
     </row>
     <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -7356,28 +7471,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -7697,11 +7812,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>123495</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7732,28 +7847,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8085,11 +8200,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>112100</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8120,28 +8235,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8473,11 +8588,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>163436</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8508,28 +8623,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -8865,11 +8980,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>128286</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8900,28 +9015,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9263,11 +9378,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>117101</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9298,28 +9413,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -9663,11 +9778,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>121959</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9698,28 +9813,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="61"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="66"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="64"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="69"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="71"/>
-      <c r="C4" s="72"/>
+      <c r="A4" s="68"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
@@ -10068,11 +10183,11 @@
       <c r="A29" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="73">
+      <c r="B29" s="71">
         <f>SUM(B6:B28)</f>
         <v>128644</v>
       </c>
-      <c r="C29" s="74"/>
+      <c r="C29" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="4">
